--- a/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/1_Impots_Lies_Au_C_A/1_I_D_S/1_Impot_Sur_Les_Societes/2_Declaration_Paiement/6_D_P_O_M_V_2074/2074.xlsx
+++ b/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/1_Impots_Lies_Au_C_A/1_I_D_S/1_Impot_Sur_Les_Societes/2_Declaration_Paiement/6_D_P_O_M_V_2074/2074.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Déclaration des plus ou moins-values réalisées en 2018 – distributions de plus-values par un OPCVM ou un placement collectif; – cessions de valeurs mobilières, droits sociaux, titres assimilés et clôtures de PEA; – profits sur instruments financiers à terme</t>
   </si>
@@ -116,6 +116,36 @@
   </si>
   <si>
     <t>405 / Total des compléments de prix: à reporter ligne 902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date et signature </t>
+  </si>
+  <si>
+    <t>5 / CESSIONS ET RACHATS DE VALEURS MOBILIÈRES, DROITS SOCIAUX ET TITRES ASSIMILÉS</t>
+  </si>
+  <si>
+    <t>500 / détermination du prix d’acquisition des titres cotés acquis avant le 1.1.1979</t>
+  </si>
+  <si>
+    <t>501 / Prix effectif d’acquisition : valeurs françaises à revenu fixe ou variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502 / Prix forfaitaire d’acquisition, sur cours moyen de 1972 : valeurs françaises à revenu variable </t>
+  </si>
+  <si>
+    <t>503 / Prix forfaitaire d’acquisition, sur cours le plus élevé de 1978 : valeurs françaises et étrangères à revenu fixe ou variable</t>
+  </si>
+  <si>
+    <t>510 / plus-values ou moins-values déterminées par vous-même</t>
+  </si>
+  <si>
+    <t>511 / Désignation des titres et des intermédiaires financiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITRES B </t>
+  </si>
+  <si>
+    <t>TITRES C</t>
   </si>
 </sst>
 </file>
@@ -185,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -254,87 +284,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -641,158 +772,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:M69"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
@@ -810,21 +941,21 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
@@ -842,38 +973,38 @@
       <c r="M13" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -891,21 +1022,21 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -923,21 +1054,21 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -955,21 +1086,21 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
@@ -987,21 +1118,21 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
@@ -1019,21 +1150,21 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -1051,55 +1182,55 @@
       <c r="M27" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
@@ -1117,21 +1248,21 @@
       <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
@@ -1149,21 +1280,21 @@
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
@@ -1181,203 +1312,203 @@
       <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="24"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="6"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="24"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="19"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
+      <c r="A45" s="1">
         <f>A39+A41+A43</f>
         <v>0</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="24"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="7"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
@@ -1395,21 +1526,21 @@
       <c r="M49" s="12"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
@@ -1427,21 +1558,21 @@
       <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="6"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
@@ -1459,38 +1590,38 @@
       <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="19"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="9"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
@@ -1508,21 +1639,21 @@
       <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
@@ -1540,21 +1671,21 @@
       <c r="M58" s="12"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="6"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
@@ -1572,38 +1703,38 @@
       <c r="M60" s="12"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="6"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
@@ -1621,21 +1752,21 @@
       <c r="M63" s="12"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="6"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
@@ -1653,21 +1784,21 @@
       <c r="M65" s="12"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="6"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
@@ -1685,165 +1816,595 @@
       <c r="M67" s="12"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="6"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="24"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="6"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="24"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="6"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="24"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="19"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="9"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="22">
+      <c r="A76" s="1">
         <f>SUM(A70,A72,A74)</f>
         <v>0</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="24"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="28"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="29"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="31"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="29"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="31"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="29"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="31"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="34"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="18"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="9"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="12"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="9"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="12"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="9"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="12"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="9"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="35"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="9"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="12"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="A72:M72"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="A74:M74"/>
-    <mergeCell ref="A75:M75"/>
-    <mergeCell ref="A76:M76"/>
-    <mergeCell ref="A66:M66"/>
-    <mergeCell ref="A67:M67"/>
-    <mergeCell ref="A68:M68"/>
-    <mergeCell ref="A69:M69"/>
-    <mergeCell ref="A70:M70"/>
+  <mergeCells count="90">
+    <mergeCell ref="A96:M96"/>
+    <mergeCell ref="A97:M97"/>
+    <mergeCell ref="A98:M98"/>
+    <mergeCell ref="A99:M99"/>
+    <mergeCell ref="A100:M100"/>
+    <mergeCell ref="A91:M91"/>
+    <mergeCell ref="A92:M92"/>
+    <mergeCell ref="A93:M93"/>
+    <mergeCell ref="A94:M94"/>
+    <mergeCell ref="A95:M95"/>
+    <mergeCell ref="A86:M86"/>
+    <mergeCell ref="A87:M87"/>
+    <mergeCell ref="A88:M88"/>
+    <mergeCell ref="A89:M89"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A77:M77"/>
+    <mergeCell ref="A78:M82"/>
+    <mergeCell ref="A84:M84"/>
+    <mergeCell ref="A85:M85"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A52:M52"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A55:M55"/>
+    <mergeCell ref="A56:M56"/>
+    <mergeCell ref="A57:M57"/>
+    <mergeCell ref="A58:M58"/>
     <mergeCell ref="A71:M71"/>
     <mergeCell ref="A60:M60"/>
     <mergeCell ref="A61:M61"/>
@@ -1851,60 +2412,16 @@
     <mergeCell ref="A63:M63"/>
     <mergeCell ref="A64:M64"/>
     <mergeCell ref="A65:M65"/>
-    <mergeCell ref="A54:M54"/>
-    <mergeCell ref="A55:M55"/>
-    <mergeCell ref="A56:M56"/>
-    <mergeCell ref="A57:M57"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A52:M52"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="A40:M40"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="A27:M27"/>
-    <mergeCell ref="A29:M29"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A66:M66"/>
+    <mergeCell ref="A67:M67"/>
+    <mergeCell ref="A68:M68"/>
+    <mergeCell ref="A69:M69"/>
+    <mergeCell ref="A70:M70"/>
+    <mergeCell ref="A72:M72"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="A74:M74"/>
+    <mergeCell ref="A75:M75"/>
+    <mergeCell ref="A76:M76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
